--- a/06. Nguyễn Tống Khánh Linh/COURSE - TESTER.xlsx
+++ b/06. Nguyễn Tống Khánh Linh/COURSE - TESTER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84353\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThucTapNN45K\06. Nguyễn Tống Khánh Linh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04728336-5F6B-4746-B3C7-0B55E54F7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656792AC-27BA-420F-9485-3E3CB5CAFC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Buổi học </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tìm hiểu về Solfware Testing, sự cần thiết của Testing, mục tiêu,... </t>
+  </si>
+  <si>
+    <t>Tìm hiểu về DML, DDL</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,7 +520,9 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
